--- a/Results/Notebook 2 Example 1/Scores/problem_1_instance1_scores.xlsx
+++ b/Results/Notebook 2 Example 1/Scores/problem_1_instance1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01491060331047472</v>
+        <v>0.01142538604652072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2018537930566955</v>
+        <v>0.2150658939635976</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0805684659898747</v>
+        <v>0.07749699958783268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1888798772012115</v>
+        <v>0.139516648354486</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5244967027440872</v>
+        <v>0.7293133251922297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1865820875532251</v>
+        <v>0.1972748460205353</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9566652243787733</v>
+        <v>0.9778767664683011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3345155583277183</v>
+        <v>0.3784942077030671</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8676790696321308</v>
+        <v>0.8939181292189049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5690866775867248</v>
+        <v>0.6169331304427405</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5848974537129685</v>
+        <v>0.7911348074035913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09836363283856861</v>
+        <v>0.1119329866628683</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004736065864562988</v>
+        <v>0.005086978077888489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2101234793663025</v>
+        <v>0.2117326927185059</v>
       </c>
     </row>
   </sheetData>
